--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB207.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB207.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AB928-4E95-421A-87CC-FC3D49459AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE33580-AC4E-41E1-B220-D240DD0F884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="223">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -408,10 +408,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>左靠右空白，含區域碼，建議格式:02-28225252#1688</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Tel</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -423,10 +419,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>左靠右空白，含區域碼，建議格式:0951-123456</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>X(05)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -439,11 +431,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>附件二之二，無資料填空白，勿填0
-1:博士 2:碩士 3:大學 4:專科 5:高中高職 6:其他</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>EduCode</t>
   </si>
   <si>
@@ -453,10 +440,6 @@
     <t>OwnedHome</t>
   </si>
   <si>
-    <t>Y:有 N:無</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>任職機構名稱</t>
   </si>
   <si>
@@ -486,10 +469,6 @@
     <t>JobCode</t>
   </si>
   <si>
-    <t>附件二之一，學生:061410</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>任職機構電話</t>
   </si>
   <si>
@@ -537,10 +516,6 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>如第五欄填稅籍編號者(即西元出生年月日8位數+英文姓名前2位字母)，本欄位為必要填報項目，M:男 F:女</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>國籍</t>
   </si>
   <si>
@@ -619,19 +594,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>左靠，取前10個全形字，不足補英文空白(配合utf8:長度3 bytes)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>左靠，取前33個全形字，不足補英文空白(配合utf8:長度3 bytes)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>取前15個全形字，不足補英文空白(配合utf8:長度3 bytes)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>左靠，取前5個全形字，不足補英文空白(配合utf8:長度3 bytes)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1002,6 +965,56 @@
   </si>
   <si>
     <t>SUBSTRB(NVL(C."CurrCompName",' '),1,30)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠，取前10個全形字，不足補英文空白(配合utf8：長度3 bytes)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠，取前33個全形字，不足補英文空白(配合utf8：長度3 bytes)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠右空白，含區域碼，建議格式：02-28225252#1688</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠右空白，含區域碼，建議格式：0951-123456</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件二之二，無資料填空白，勿填0
+1:博士
+2:碩士
+3:大學
+4:專科
+5:高中高職
+6:其他</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:有
+N:無</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>取前15個全形字，不足補英文空白(配合utf8：長度3 bytes)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件二之一
+學生:061410</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠，取前5個全形字，不足補英文空白(配合utf8：長度3 bytes)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>如第五欄填稅籍編號者(即西元出生年月日8位數+英文姓名前2位字母)，本欄位為必要填報項目
+M:男
+F:女</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1751,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1822,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1901,7 +1914,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1912,7 +1925,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>25</v>
@@ -1925,7 +1938,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
       <c r="J9" s="34" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1949,13 +1962,13 @@
         <v>51</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I10" s="32">
         <v>1</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1985,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2015,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2045,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2069,16 +2082,16 @@
         <v>44</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I14" s="32">
         <v>5</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -2096,7 +2109,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="17" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>59</v>
@@ -2105,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2135,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
@@ -2165,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
@@ -2173,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>67</v>
@@ -2186,7 +2199,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="17" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>68</v>
@@ -2195,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -2223,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
@@ -2244,7 +2257,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>68</v>
@@ -2253,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="239.4" x14ac:dyDescent="0.3">
@@ -2261,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
@@ -2274,7 +2287,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="17" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>75</v>
@@ -2283,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -2291,10 +2304,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -2304,7 +2317,7 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="17" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>75</v>
@@ -2313,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2321,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>45</v>
@@ -2343,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
@@ -2351,10 +2364,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -2363,27 +2376,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I24" s="32">
         <v>15</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2392,16 +2405,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I25" s="32">
         <v>16</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2409,10 +2422,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -2421,16 +2434,16 @@
         <v>45</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I26" s="32">
         <v>17</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2438,10 +2451,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -2450,24 +2463,24 @@
         <v>8</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I27" s="32">
         <v>18</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -2476,16 +2489,16 @@
         <v>6</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I28" s="32">
         <v>19</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2493,10 +2506,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2505,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>75</v>
@@ -2514,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2522,10 +2535,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2534,7 +2547,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>27</v>
@@ -2543,7 +2556,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2551,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
@@ -2563,16 +2576,16 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I31" s="32">
         <v>22</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -2580,10 +2593,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>25</v>
@@ -2592,16 +2605,16 @@
         <v>6</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I32" s="32">
         <v>23</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
@@ -2609,10 +2622,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>25</v>
@@ -2624,33 +2637,33 @@
         <v>55</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I33" s="32">
         <v>24</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>28</v>
@@ -2659,7 +2672,7 @@
         <v>25</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2667,28 +2680,28 @@
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I35" s="32">
         <v>26</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -2696,19 +2709,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E36" s="9">
         <v>20</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>59</v>
@@ -2717,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2725,10 +2738,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -2737,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>27</v>
@@ -2746,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -2754,10 +2767,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -2766,16 +2779,16 @@
         <v>300</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I38" s="32">
         <v>29</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2783,7 +2796,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>45</v>
@@ -2798,13 +2811,13 @@
         <v>33</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I39" s="32">
         <v>30</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3002,13 +3015,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3033,67 +3046,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3119,172 +3132,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3309,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3317,7 +3330,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -3325,52 +3338,52 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
